--- a/2-Empirical-Evidence/raw_data/Nevada.xlsx
+++ b/2-Empirical-Evidence/raw_data/Nevada.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN320010000000003</t>
@@ -742,10 +758,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>6.3</v>
@@ -840,10 +868,20 @@
       <c r="AF5" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>486.0</v>
@@ -938,10 +976,20 @@
       <c r="AF6" t="n" s="8">
         <v>645.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>367.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>380.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>472.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>7249.0</v>
@@ -1036,10 +1084,20 @@
       <c r="AF7" t="n" s="8">
         <v>10434.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>10704.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>10571.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>10605.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>7735.0</v>
@@ -1134,10 +1192,20 @@
       <c r="AF8" t="n" s="8">
         <v>11079.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>11071.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>10951.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>11077.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>4.5</v>
@@ -1232,10 +1300,20 @@
       <c r="AF9" t="n" s="10">
         <v>15.5</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>18617.0</v>
@@ -1330,10 +1408,20 @@
       <c r="AF10" t="n" s="8">
         <v>171339.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>86070.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>66737.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>64447.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>395979.0</v>
@@ -1428,10 +1516,20 @@
       <c r="AF11" t="n" s="8">
         <v>934905.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>1011808.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>1083926.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>1122046.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>414596.0</v>
@@ -1526,10 +1624,20 @@
       <c r="AF12" t="n" s="8">
         <v>1106244.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>1097878.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>1150663.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>1186493.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>4.9</v>
@@ -1624,10 +1732,20 @@
       <c r="AF13" t="n" s="10">
         <v>9.0</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>727.0</v>
@@ -1722,10 +1840,20 @@
       <c r="AF14" t="n" s="8">
         <v>2002.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>939.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>859.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>1029.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>14121.0</v>
@@ -1820,10 +1948,20 @@
       <c r="AF15" t="n" s="8">
         <v>20175.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>20961.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>21431.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>21628.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>14848.0</v>
@@ -1918,10 +2056,20 @@
       <c r="AF16" t="n" s="8">
         <v>22177.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>21900.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>22290.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>22657.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>4.8</v>
@@ -2016,10 +2164,20 @@
       <c r="AF17" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>840.0</v>
@@ -2114,10 +2272,20 @@
       <c r="AF18" t="n" s="8">
         <v>1573.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>798.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>804.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>980.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>16811.0</v>
@@ -2212,10 +2380,20 @@
       <c r="AF19" t="n" s="8">
         <v>24606.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>24864.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>24942.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>24940.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>17651.0</v>
@@ -2310,10 +2488,20 @@
       <c r="AF20" t="n" s="8">
         <v>26179.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>25662.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>25746.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>25920.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>5.8</v>
@@ -2408,10 +2596,20 @@
       <c r="AF21" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>36.0</v>
@@ -2506,10 +2704,20 @@
       <c r="AF22" t="n" s="8">
         <v>22.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>587.0</v>
@@ -2604,10 +2812,20 @@
       <c r="AF23" t="n" s="8">
         <v>396.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>407.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>400.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>460.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>623.0</v>
@@ -2702,10 +2920,20 @@
       <c r="AF24" t="n" s="8">
         <v>418.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>422.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>414.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>479.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>5.4</v>
@@ -2800,10 +3028,20 @@
       <c r="AF25" t="n" s="10">
         <v>3.6</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>46.0</v>
@@ -2898,10 +3136,20 @@
       <c r="AF26" t="n" s="8">
         <v>37.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>800.0</v>
@@ -2996,10 +3244,20 @@
       <c r="AF27" t="n" s="8">
         <v>985.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>1024.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>978.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>958.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>846.0</v>
@@ -3094,10 +3352,20 @@
       <c r="AF28" t="n" s="8">
         <v>1022.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>1049.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>1006.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>995.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>5.2</v>
@@ -3192,10 +3460,20 @@
       <c r="AF29" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>351.0</v>
@@ -3290,10 +3568,20 @@
       <c r="AF30" t="n" s="8">
         <v>406.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>260.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>249.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>304.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>6425.0</v>
@@ -3388,10 +3676,20 @@
       <c r="AF31" t="n" s="8">
         <v>7620.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>7871.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>7583.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>7503.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>6776.0</v>
@@ -3486,10 +3784,20 @@
       <c r="AF32" t="n" s="8">
         <v>8026.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>8131.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>7832.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>7807.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>6.3</v>
@@ -3584,10 +3892,20 @@
       <c r="AF33" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>195.0</v>
@@ -3682,10 +4000,20 @@
       <c r="AF34" t="n" s="8">
         <v>156.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>106.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>99.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>113.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>2882.0</v>
@@ -3780,10 +4108,20 @@
       <c r="AF35" t="n" s="8">
         <v>2981.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>3038.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>2939.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>3038.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>3077.0</v>
@@ -3878,10 +4216,20 @@
       <c r="AF36" t="n" s="8">
         <v>3137.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>3144.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>3038.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>3151.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>6.6</v>
@@ -3976,10 +4324,20 @@
       <c r="AF37" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>98.0</v>
@@ -4074,10 +4432,20 @@
       <c r="AF38" t="n" s="8">
         <v>105.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>67.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>78.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>1388.0</v>
@@ -4172,10 +4540,20 @@
       <c r="AF39" t="n" s="8">
         <v>1926.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>2059.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>1971.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>1933.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>1486.0</v>
@@ -4270,10 +4648,20 @@
       <c r="AF40" t="n" s="8">
         <v>2031.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>2126.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>2049.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>2028.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>6.0</v>
@@ -4368,10 +4756,20 @@
       <c r="AF41" t="n" s="10">
         <v>9.0</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>560.0</v>
@@ -4466,10 +4864,20 @@
       <c r="AF42" t="n" s="8">
         <v>2049.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>1141.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>1114.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>1368.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>8749.0</v>
@@ -4564,10 +4972,20 @@
       <c r="AF43" t="n" s="8">
         <v>20664.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>22158.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>22454.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>22259.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>9309.0</v>
@@ -4662,10 +5080,20 @@
       <c r="AF44" t="n" s="8">
         <v>22713.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>23299.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>23568.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>23627.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>5.8</v>
@@ -4760,10 +5188,20 @@
       <c r="AF45" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>169.0</v>
@@ -4858,10 +5296,20 @@
       <c r="AF46" t="n" s="8">
         <v>123.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>74.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>78.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>2757.0</v>
@@ -4956,10 +5404,20 @@
       <c r="AF47" t="n" s="8">
         <v>1990.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>1976.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>1589.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>1404.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>2926.0</v>
@@ -5054,10 +5512,20 @@
       <c r="AF48" t="n" s="8">
         <v>2113.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>2050.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>1667.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>1507.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>3.4</v>
@@ -5152,10 +5620,20 @@
       <c r="AF49" t="n" s="10">
         <v>10.2</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>308.0</v>
@@ -5250,10 +5728,20 @@
       <c r="AF50" t="n" s="8">
         <v>1781.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>994.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>971.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>1172.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>8795.0</v>
@@ -5348,10 +5836,20 @@
       <c r="AF51" t="n" s="8">
         <v>15639.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>16134.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>16779.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>17109.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>9103.0</v>
@@ -5446,10 +5944,20 @@
       <c r="AF52" t="n" s="8">
         <v>17420.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>17128.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>17750.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>18281.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>4.6</v>
@@ -5544,10 +6052,20 @@
       <c r="AF53" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>92.0</v>
@@ -5642,10 +6160,20 @@
       <c r="AF54" t="n" s="8">
         <v>126.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>84.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>87.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>1909.0</v>
@@ -5740,10 +6268,20 @@
       <c r="AF55" t="n" s="8">
         <v>2442.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>2513.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>2414.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>2266.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>2001.0</v>
@@ -5838,10 +6376,20 @@
       <c r="AF56" t="n" s="8">
         <v>2568.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>2597.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>2501.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>2377.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>2.2</v>
@@ -5936,10 +6484,20 @@
       <c r="AF57" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>32.0</v>
@@ -6034,10 +6592,20 @@
       <c r="AF58" t="n" s="8">
         <v>173.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>1393.0</v>
@@ -6132,10 +6700,20 @@
       <c r="AF59" t="n" s="8">
         <v>1843.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>1955.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>2007.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>2049.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>1425.0</v>
@@ -6230,10 +6808,20 @@
       <c r="AF60" t="n" s="8">
         <v>2016.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>2044.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>2088.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>2141.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>4.8</v>
@@ -6328,10 +6916,20 @@
       <c r="AF61" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>7233.0</v>
@@ -6426,10 +7024,20 @@
       <c r="AF62" t="n" s="8">
         <v>20466.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>10179.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>8626.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>10728.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>142308.0</v>
@@ -6524,10 +7132,20 @@
       <c r="AF63" t="n" s="8">
         <v>228136.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>241814.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>247689.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>252761.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>149541.0</v>
@@ -6622,10 +7240,20 @@
       <c r="AF64" t="n" s="8">
         <v>248602.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>251993.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>256315.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>263489.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>6.4</v>
@@ -6720,10 +7348,20 @@
       <c r="AF65" t="n" s="10">
         <v>4.3</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>257.0</v>
@@ -6818,10 +7456,20 @@
       <c r="AF66" t="n" s="8">
         <v>196.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>133.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>155.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>3765.0</v>
@@ -6916,10 +7564,20 @@
       <c r="AF67" t="n" s="8">
         <v>4360.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>4464.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>4379.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>4450.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>4022.0</v>
@@ -7014,10 +7672,20 @@
       <c r="AF68" t="n" s="8">
         <v>4556.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>4594.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>4512.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>4605.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>5.8</v>
@@ -7112,10 +7780,20 @@
       <c r="AF69" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>1203.0</v>
@@ -7210,10 +7888,20 @@
       <c r="AF70" t="n" s="8">
         <v>2229.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>1143.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>973.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>1168.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>19604.0</v>
@@ -7308,10 +7996,20 @@
       <c r="AF71" t="n" s="8">
         <v>23415.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>24212.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>24243.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>24850.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>20807.0</v>
@@ -7406,6 +8104,16 @@
       <c r="AF72" t="n" s="8">
         <v>25644.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>25355.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>25216.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>26018.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -7416,7 +8124,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (01:37:03 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:53:30 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
